--- a/Databases/MobiedockDataFiles/Excel Tables:Other Docs/ChargingStation.xlsx
+++ b/Databases/MobiedockDataFiles/Excel Tables:Other Docs/ChargingStation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eshoji/Desktop/MobiedockDataFiles/Excel Tables:Other Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nico/Desktop/solar-scooter-project/Databases/MobiedockDataFiles/Excel Tables:Other Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4679139E-E35B-7446-8E35-79F592EB2A97}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D2D16D-4550-154D-8D6A-CFAEEA6B31EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13100" yWindow="0" windowWidth="15700" windowHeight="18000" xr2:uid="{1CEC5BCC-2DA8-C446-95EC-61D0623BD6D2}"/>
+    <workbookView xWindow="9900" yWindow="460" windowWidth="15700" windowHeight="15540" xr2:uid="{1CEC5BCC-2DA8-C446-95EC-61D0623BD6D2}"/>
   </bookViews>
   <sheets>
     <sheet name="ChargingStation" sheetId="1" r:id="rId1"/>
@@ -27,21 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Station ID</t>
-  </si>
-  <si>
-    <t>Model Number</t>
-  </si>
-  <si>
-    <t>Avaliable Bays</t>
-  </si>
-  <si>
-    <t>Last Maintenance Date</t>
-  </si>
-  <si>
-    <t>Location ID</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
@@ -70,6 +55,21 @@
   </si>
   <si>
     <t>S5</t>
+  </si>
+  <si>
+    <t>station_id</t>
+  </si>
+  <si>
+    <t>model_number</t>
+  </si>
+  <si>
+    <t>available_bays</t>
+  </si>
+  <si>
+    <t>last_maintenance_date</t>
+  </si>
+  <si>
+    <t>location_id</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,24 +449,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -478,12 +478,12 @@
         <v>43430</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -495,12 +495,12 @@
         <v>43431</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -512,12 +512,12 @@
         <v>43433</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -529,12 +529,12 @@
         <v>43434</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -546,7 +546,7 @@
         <v>43431</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/Databases/MobiedockDataFiles/Excel Tables:Other Docs/ChargingStation.xlsx
+++ b/Databases/MobiedockDataFiles/Excel Tables:Other Docs/ChargingStation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nico/Desktop/solar-scooter-project/Databases/MobiedockDataFiles/Excel Tables:Other Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D2D16D-4550-154D-8D6A-CFAEEA6B31EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF05116E-01D4-3748-A0A8-A040349DD8A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="460" windowWidth="15700" windowHeight="15540" xr2:uid="{1CEC5BCC-2DA8-C446-95EC-61D0623BD6D2}"/>
+    <workbookView xWindow="7000" yWindow="460" windowWidth="15700" windowHeight="15540" xr2:uid="{1CEC5BCC-2DA8-C446-95EC-61D0623BD6D2}"/>
   </bookViews>
   <sheets>
     <sheet name="ChargingStation" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>L1</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>location_id</t>
+  </si>
+  <si>
+    <t>MN1</t>
+  </si>
+  <si>
+    <t>MN2</t>
   </si>
 </sst>
 </file>
@@ -439,7 +445,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,8 +474,8 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>6</v>
@@ -485,8 +491,8 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>6</v>
@@ -502,8 +508,8 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -519,8 +525,8 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -536,8 +542,8 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
-        <v>2</v>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>

--- a/Databases/MobiedockDataFiles/Excel Tables:Other Docs/ChargingStation.xlsx
+++ b/Databases/MobiedockDataFiles/Excel Tables:Other Docs/ChargingStation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nico/Desktop/solar-scooter-project/Databases/MobiedockDataFiles/Excel Tables:Other Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bendavis/Documents/solar-scooter-project/Databases/MobiedockDataFiles/Excel Tables:Other Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF05116E-01D4-3748-A0A8-A040349DD8A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EABA58-1F71-024B-B603-5E0B4AB5C529}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7000" yWindow="460" windowWidth="15700" windowHeight="15540" xr2:uid="{1CEC5BCC-2DA8-C446-95EC-61D0623BD6D2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>L1</t>
   </si>
@@ -55,21 +55,6 @@
   </si>
   <si>
     <t>S5</t>
-  </si>
-  <si>
-    <t>station_id</t>
-  </si>
-  <si>
-    <t>model_number</t>
-  </si>
-  <si>
-    <t>available_bays</t>
-  </si>
-  <si>
-    <t>last_maintenance_date</t>
-  </si>
-  <si>
-    <t>location_id</t>
   </si>
   <si>
     <t>MN1</t>
@@ -442,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7987FA14-F740-4B41-8FC8-8B82D2D5905A}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,105 +440,95 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
+      <c r="C1" s="1">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2">
+        <v>43430</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>43430</v>
+        <v>43431</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
-        <v>43431</v>
+        <v>43433</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43434</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>43433</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>43434</v>
+        <v>43431</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>43431</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
@@ -653,13 +628,6 @@
       <c r="D20" s="2"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
